--- a/core/static/utils/page_base.xlsx
+++ b/core/static/utils/page_base.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
-    <sheet name="TermianlX" sheetId="4" r:id="rId3"/>
+    <sheet name="TerminalX" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>div &gt; a.link_2L32.link-wishlist_1lmB.tx-link_29YD</t>
   </si>
 </sst>
 </file>
@@ -113,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,34 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,16 +141,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +156,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -211,7 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +211,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,37 +239,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,13 +292,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,163 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,32 +485,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +538,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -580,7 +580,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,130 +598,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,13 +1237,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="66.8571428571429" customWidth="1"/>
@@ -1272,6 +1272,17 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/core/static/utils/page_base.xlsx
+++ b/core/static/utils/page_base.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
-    <sheet name="TerminalX" sheetId="3" r:id="rId3"/>
+    <sheet name="TerminalX" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -108,7 +108,7 @@
     <t>CSS</t>
   </si>
   <si>
-    <t>heart_icon</t>
+    <t>icon</t>
   </si>
   <si>
     <t>div &gt; a.link_2L32.link-wishlist_1lmB.tx-link_29YD</t>
@@ -119,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,59 +133,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +201,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,24 +231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +263,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -263,21 +272,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +292,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,25 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,103 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +477,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,21 +500,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +530,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -560,11 +537,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,156 +580,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
   </cols>
@@ -1076,7 +1068,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1102,12 +1094,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
       <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1236,7 +1225,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1250,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1299,7 +1288,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
   </dataValidations>

--- a/core/static/utils/page_base.xlsx
+++ b/core/static/utils/page_base.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgenyp\Desktop\Cell\Cellenium\core\static\utils\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9854BA-D061-4493-874E-F0594035EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5385" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
     <sheet name="TerminalX" sheetId="3" r:id="rId3"/>
-    <sheet name="ST" sheetId="4" r:id="rId4"/>
+    <sheet name="InteractionsPage" sheetId="4" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -140,13 +135,46 @@
   </si>
   <si>
     <t>//*[@id="__next"]/div[2]/div[2]/div/div[2]/div/div[2]/div[2]/div/div/div</t>
+  </si>
+  <si>
+    <t>date_peaker</t>
+  </si>
+  <si>
+    <t>#\/interactions\&gt;F\&gt;filter\:2 &gt; div &gt; span.MuiChip-label.MuiChip-labelMedium.css-14vsv3w</t>
+  </si>
+  <si>
+    <t>username_input</t>
+  </si>
+  <si>
+    <t>loginfmt</t>
+  </si>
+  <si>
+    <t>next_button</t>
+  </si>
+  <si>
+    <t>idSIButton9</t>
+  </si>
+  <si>
+    <t>password_input</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>submit_button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,19 +184,169 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +359,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,27 +560,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,21 +1125,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -499,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -510,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -523,26 +1180,28 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
       <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.5714285714286" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -571,7 +1230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -582,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -593,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -604,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -615,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -626,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -637,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -650,26 +1309,28 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.8571428571429" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -698,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -709,7 +1370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -720,7 +1381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -731,7 +1392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -744,28 +1405,30 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="86" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -782,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -793,12 +1456,119 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C4:C5 C6:C35">
+      <formula1>"ID, NAME, CSS, XPATH"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>